--- a/Data/PFOS-Descriptors-20082025.xlsx
+++ b/Data/PFOS-Descriptors-20082025.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sousa.Javannikkhah\Desktop\Collaborations\MOF-ML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hsm24sch\Documents\ML_Discovery_Metal-Organic_Adsobents\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53064C73-ECAE-47BA-BD7A-FE534657816D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8D9D41-028F-4857-922E-59D54144B52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{4BB31547-DEC7-4C48-81A3-F0434BAFACDA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{4BB31547-DEC7-4C48-81A3-F0434BAFACDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$H$14</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="97">
   <si>
     <t>#</t>
   </si>
@@ -210,13 +215,133 @@
   </si>
   <si>
     <t>2-Methylimidazole</t>
+  </si>
+  <si>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>PLD</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t>GSA</t>
+  </si>
+  <si>
+    <t>Void_Fraction</t>
+  </si>
+  <si>
+    <t>Pore_Volume</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Lower 95.0%</t>
+  </si>
+  <si>
+    <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>RESIDUAL OUTPUT</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Predicted GSA</t>
+  </si>
+  <si>
+    <t>Residuals</t>
+  </si>
+  <si>
+    <t>PROBABILITY OUTPUT</t>
+  </si>
+  <si>
+    <t>Percentile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +411,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -325,7 +468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -413,12 +556,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -527,9 +682,32 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -543,6 +721,5834 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Void_Fraction  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.82339499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82091000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82381499999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70696999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73928499999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59773500000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.590055</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64198999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61424999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55081999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36141499999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41685</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28103499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$26:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-330.97965277425055</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-350.80587237033433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-456.57283527615346</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>840.45280771170155</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-32.868591029205618</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>289.85523610602149</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-584.83605147243725</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1341.8666420189975</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1020.4844428830647</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1045.2347223743991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>230.06823950871149</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1459.0857860157025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>537.656143084002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1C5E-42BC-97B8-8A46ABF00BB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="833806400"/>
+        <c:axId val="833807840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="833806400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Void_Fraction</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="833807840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="833807840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="833806400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Pore_Volume  Residual Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$2:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.6913499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6889799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.08446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.02311</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59533499999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47786099999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70048200000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67998700000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34599600000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24557899999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20608299999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.171321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$26:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-330.97965277425055</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-350.80587237033433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-456.57283527615346</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>840.45280771170155</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-32.868591029205618</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>289.85523610602149</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-584.83605147243725</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1341.8666420189975</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1020.4844428830647</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1045.2347223743991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>230.06823950871149</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1459.0857860157025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>537.656143084002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8C1B-45B9-AE3D-C700C25DC73F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="833809640"/>
+        <c:axId val="833812160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="833809640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Pore_Volume</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="833812160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="833812160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Residuals</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="833809640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Normal Probability Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$E$26:$E$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3.8461538461538463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.538461538461538</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.23076923076923</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.923076923076923</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.615384615384613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42.307692307692307</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.692307692307693</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.384615384615387</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73.076923076923066</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80.769230769230759</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88.461538461538453</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96.153846153846146</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$F$26:$F$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2383.4299999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2470.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2920.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3321.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3474.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3504.23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3517.78</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3879.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4299.53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4516.55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4633.29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4812.3900000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4879</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-50A5-459F-993D-24DDDA168226}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="833809640"/>
+        <c:axId val="833808200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="833809640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Sample Percentile</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="833808200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="833808200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>GSA</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="833809640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pore_Volume</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$2:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3517.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3504.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3321.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4516.55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3474.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3879.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2920.55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4879</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4633.29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2470.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4299.53</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2383.4299999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4812.3900000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$2:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.6913499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6889799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.08446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.02311</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59533499999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47786099999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70048200000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67998700000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34599600000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24557899999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20608299999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.171321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD7B-4727-8EB4-9EE7AA0B181E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="404763344"/>
+        <c:axId val="404764064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="404763344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404764064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="404764064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="404763344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Void_Fraction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$2:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3517.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3504.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3321.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4516.55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3474.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3879.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2920.55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4879</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4633.29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2470.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4299.53</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2383.4299999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4812.3900000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.82339499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82091000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82381499999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70696999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73928499999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59773500000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.590055</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64198999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61424999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55081999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36141499999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41685</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28103499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C62A-469F-B91E-986D191BEC57}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="711275856"/>
+        <c:axId val="711270456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="711275856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711270456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="711270456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711275856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LCD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>30.988489999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.478670000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.432740000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.244479999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7338699999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9708300000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8217500000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.53498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4548000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4371499999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5868099999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.27596</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0821400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$2:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>32.023940000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.117139999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.141760000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.45407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.96894</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5773900000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7030700000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.983090000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.063359999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.6516500000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7865600000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.3330599999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7181899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E52-4E8C-A438-B92A2E82C6BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="898583656"/>
+        <c:axId val="898579696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="898583656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="898579696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="898579696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="898583656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pore_Volume</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.82339499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82091000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82381499999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70696999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73928499999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59773500000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.590055</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64198999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61424999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55081999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36141499999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41685</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28103499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$2:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.6913499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6889799999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.08446</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.02311</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59533499999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47786099999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70048200000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67998700000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.34599600000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24557899999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20608299999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.171321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8473-40A1-B4E7-7855A09B5D85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="711263256"/>
+        <c:axId val="711265056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="711263256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711265056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="711265056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="711263256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Void_Fraction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$N$2:$N$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>30.988489999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28.478670000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.432740000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.244479999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7338699999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9708300000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8217500000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.53498</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4548000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4371499999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5868099999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.27596</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0821400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$O$2:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.82339499999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82091000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82381499999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70696999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73928499999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59773500000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.590055</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64198999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61424999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55081999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36141499999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41685</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.28103499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5353-498D-ADC9-E5952B5421FC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="902336608"/>
+        <c:axId val="902341648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="902336608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="902341648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="902341648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="902336608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>248920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>248920</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D093B74-896E-04BE-633A-A5202082626B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>405130</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>405130</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F463AE0-625C-1869-D698-9952156F760F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>306070</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>119380</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>306070</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>130810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00988024-2F5B-6927-DD80-236697342682}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>513080</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>92710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C84C708-F0C3-F04A-4793-01B10D8106AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>229870</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>176530</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>181610</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F09FD1-0892-97E7-098F-A3EC772378AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>54610</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>332740</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1BA0AAC-3E00-DC6F-6EF8-3A4AD924D4EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F7F794D-76C6-1E19-EB4C-3876D8FF3A7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2203746-CDF2-1F93-4FDE-B319332F7E3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -864,30 +6870,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABB696E-6F8C-490A-9846-176BAA6065B3}">
   <dimension ref="A3:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" customWidth="1"/>
+    <col min="3" max="3" width="26.453125" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" customWidth="1"/>
-    <col min="8" max="8" width="37.7109375" customWidth="1"/>
-    <col min="9" max="9" width="51.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.1796875" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" customWidth="1"/>
+    <col min="7" max="7" width="29.81640625" customWidth="1"/>
+    <col min="8" max="8" width="37.7265625" customWidth="1"/>
+    <col min="9" max="9" width="51.26953125" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" customWidth="1"/>
-    <col min="12" max="12" width="37.5703125" customWidth="1"/>
-    <col min="13" max="13" width="23.85546875" customWidth="1"/>
-    <col min="14" max="14" width="34.7109375" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" customWidth="1"/>
+    <col min="11" max="11" width="21.26953125" customWidth="1"/>
+    <col min="12" max="12" width="37.54296875" customWidth="1"/>
+    <col min="13" max="13" width="23.81640625" customWidth="1"/>
+    <col min="14" max="14" width="34.7265625" customWidth="1"/>
+    <col min="15" max="15" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1"/>
-    <row r="4" spans="1:14" ht="15.75">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
@@ -931,7 +6937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75">
+    <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -975,7 +6981,7 @@
         <v>0.47786099999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75">
+    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="13">
         <v>2</v>
       </c>
@@ -1019,7 +7025,7 @@
         <v>0.20608299999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75">
+    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="13">
         <v>3</v>
       </c>
@@ -1063,7 +7069,7 @@
         <v>0.171321</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75">
+    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="13">
         <v>4</v>
       </c>
@@ -1107,7 +7113,7 @@
         <v>1.02311</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75">
+    <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -1151,7 +7157,7 @@
         <v>0.34599600000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="29.25">
+    <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -1195,7 +7201,7 @@
         <v>1.6913499999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75">
+    <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="13">
         <v>7</v>
       </c>
@@ -1239,7 +7245,7 @@
         <v>1.6180000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75">
+    <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="13">
         <v>8</v>
       </c>
@@ -1283,7 +7289,7 @@
         <v>1.6889799999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75">
+    <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="13">
         <v>9</v>
       </c>
@@ -1327,7 +7333,7 @@
         <v>0.59533499999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75">
+    <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="13">
         <v>10</v>
       </c>
@@ -1371,7 +7377,7 @@
         <v>0.24557899999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75">
+    <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="13">
         <v>11</v>
       </c>
@@ -1415,7 +7421,7 @@
         <v>1.08446</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75">
+    <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="13">
         <v>12</v>
       </c>
@@ -1459,7 +7465,7 @@
         <v>0.70048200000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16.5" thickBot="1">
+    <row r="17" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="16">
         <v>13</v>
       </c>
@@ -1503,70 +7509,1210 @@
         <v>0.67998700000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="1:14" ht="18.75">
+    <row r="32" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C32" s="7"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C33" s="8"/>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C34" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97A5779-98E1-426B-9BA5-775AECD70411}">
+  <dimension ref="A1:I38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="49"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="46">
+        <v>0.27924549020766803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="46">
+        <v>7.7978043801320826E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="46">
+        <v>-0.10642634743841502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="46">
+        <v>893.30894083655676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="47">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="48"/>
+      <c r="B11" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="46">
+        <v>2</v>
+      </c>
+      <c r="C12" s="46">
+        <v>674892.23972238507</v>
+      </c>
+      <c r="D12" s="46">
+        <v>337446.11986119254</v>
+      </c>
+      <c r="E12" s="46">
+        <v>0.42286435413539092</v>
+      </c>
+      <c r="F12" s="46">
+        <v>0.66635600432934328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="46">
+        <v>10</v>
+      </c>
+      <c r="C13" s="46">
+        <v>7980008.637785309</v>
+      </c>
+      <c r="D13" s="46">
+        <v>798000.86377853085</v>
+      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="47">
+        <v>12</v>
+      </c>
+      <c r="C14" s="47">
+        <v>8654900.8775076941</v>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="48"/>
+      <c r="B16" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="48" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="46">
+        <v>5075.5521194934436</v>
+      </c>
+      <c r="C17" s="46">
+        <v>1489.0960448516912</v>
+      </c>
+      <c r="D17" s="46">
+        <v>3.4084786787536938</v>
+      </c>
+      <c r="E17" s="46">
+        <v>6.675315336716784E-3</v>
+      </c>
+      <c r="F17" s="46">
+        <v>1757.6393676202947</v>
+      </c>
+      <c r="G17" s="46">
+        <v>8393.464871366592</v>
+      </c>
+      <c r="H17" s="46">
+        <v>1757.6393676202947</v>
+      </c>
+      <c r="I17" s="46">
+        <v>8393.464871366592</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="46">
+        <v>-3423.3112421374099</v>
+      </c>
+      <c r="C18" s="46">
+        <v>3744.9212351757246</v>
+      </c>
+      <c r="D18" s="46">
+        <v>-0.91412102609329682</v>
+      </c>
+      <c r="E18" s="46">
+        <v>0.38216535941961371</v>
+      </c>
+      <c r="F18" s="46">
+        <v>-11767.515743860869</v>
+      </c>
+      <c r="G18" s="46">
+        <v>4920.8932595860497</v>
+      </c>
+      <c r="H18" s="46">
+        <v>-11767.515743860869</v>
+      </c>
+      <c r="I18" s="46">
+        <v>4920.8932595860497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="47">
+        <v>941.22735891479601</v>
+      </c>
+      <c r="C19" s="47">
+        <v>1172.8214399926683</v>
+      </c>
+      <c r="D19" s="47">
+        <v>0.80253253122715762</v>
+      </c>
+      <c r="E19" s="47">
+        <v>0.44090076328442074</v>
+      </c>
+      <c r="F19" s="47">
+        <v>-1671.9816579753572</v>
+      </c>
+      <c r="G19" s="47">
+        <v>3554.4363758049494</v>
+      </c>
+      <c r="H19" s="47">
+        <v>-1671.9816579753572</v>
+      </c>
+      <c r="I19" s="47">
+        <v>3554.4363758049494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="46">
+        <v>1</v>
+      </c>
+      <c r="B26" s="46">
+        <v>3848.7596527742508</v>
+      </c>
+      <c r="C26" s="46">
+        <v>-330.97965277425055</v>
+      </c>
+      <c r="E26" s="46">
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="F26" s="46">
+        <v>2383.4299999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="46">
+        <v>2</v>
+      </c>
+      <c r="B27" s="46">
+        <v>3855.0358723703343</v>
+      </c>
+      <c r="C27" s="46">
+        <v>-350.80587237033433</v>
+      </c>
+      <c r="E27" s="46">
+        <v>11.538461538461538</v>
+      </c>
+      <c r="F27" s="46">
+        <v>2470.35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="46">
+        <v>3</v>
+      </c>
+      <c r="B28" s="46">
+        <v>3778.2828352761535</v>
+      </c>
+      <c r="C28" s="46">
+        <v>-456.57283527615346</v>
+      </c>
+      <c r="E28" s="46">
+        <v>19.23076923076923</v>
+      </c>
+      <c r="F28" s="46">
+        <v>2920.55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="46">
+        <v>4</v>
+      </c>
+      <c r="B29" s="46">
+        <v>3676.0971922882986</v>
+      </c>
+      <c r="C29" s="46">
+        <v>840.45280771170155</v>
+      </c>
+      <c r="E29" s="46">
+        <v>26.923076923076923</v>
+      </c>
+      <c r="F29" s="46">
+        <v>3321.71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="46">
+        <v>5</v>
+      </c>
+      <c r="B30" s="46">
+        <v>3507.7285910292057</v>
+      </c>
+      <c r="C30" s="46">
+        <v>-32.868591029205618</v>
+      </c>
+      <c r="E30" s="46">
+        <v>34.615384615384613</v>
+      </c>
+      <c r="F30" s="46">
+        <v>3474.86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="46">
+        <v>6</v>
+      </c>
+      <c r="B31" s="46">
+        <v>3589.6647638939785</v>
+      </c>
+      <c r="C31" s="46">
+        <v>289.85523610602149</v>
+      </c>
+      <c r="E31" s="46">
+        <v>42.307692307692307</v>
+      </c>
+      <c r="F31" s="46">
+        <v>3504.23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="46">
+        <v>7</v>
+      </c>
+      <c r="B32" s="46">
+        <v>3505.3860514724374</v>
+      </c>
+      <c r="C32" s="46">
+        <v>-584.83605147243725</v>
+      </c>
+      <c r="E32" s="46">
+        <v>50</v>
+      </c>
+      <c r="F32" s="46">
+        <v>3517.78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="46">
+        <v>8</v>
+      </c>
+      <c r="B33" s="46">
+        <v>3537.1333579810025</v>
+      </c>
+      <c r="C33" s="46">
+        <v>1341.8666420189975</v>
+      </c>
+      <c r="E33" s="46">
+        <v>57.692307692307693</v>
+      </c>
+      <c r="F33" s="46">
+        <v>3879.52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="46">
+        <v>9</v>
+      </c>
+      <c r="B34" s="46">
+        <v>3612.8055571169352</v>
+      </c>
+      <c r="C34" s="46">
+        <v>1020.4844428830647</v>
+      </c>
+      <c r="E34" s="46">
+        <v>65.384615384615387</v>
+      </c>
+      <c r="F34" s="46">
+        <v>4299.53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="46">
+        <v>10</v>
+      </c>
+      <c r="B35" s="46">
+        <v>3515.584722374399</v>
+      </c>
+      <c r="C35" s="46">
+        <v>-1045.2347223743991</v>
+      </c>
+      <c r="E35" s="46">
+        <v>73.076923076923066</v>
+      </c>
+      <c r="F35" s="46">
+        <v>4516.55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="46">
+        <v>11</v>
+      </c>
+      <c r="B36" s="46">
+        <v>4069.4617604912883</v>
+      </c>
+      <c r="C36" s="46">
+        <v>230.06823950871149</v>
+      </c>
+      <c r="E36" s="46">
+        <v>80.769230769230759</v>
+      </c>
+      <c r="F36" s="46">
+        <v>4633.29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="46">
+        <v>12</v>
+      </c>
+      <c r="B37" s="46">
+        <v>3842.5157860157024</v>
+      </c>
+      <c r="C37" s="46">
+        <v>-1459.0857860157025</v>
+      </c>
+      <c r="E37" s="46">
+        <v>88.461538461538453</v>
+      </c>
+      <c r="F37" s="46">
+        <v>4812.3900000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="47">
+        <v>13</v>
+      </c>
+      <c r="B38" s="47">
+        <v>4274.7338569159983</v>
+      </c>
+      <c r="C38" s="47">
+        <v>537.656143084002</v>
+      </c>
+      <c r="E38" s="47">
+        <v>96.153846153846146</v>
+      </c>
+      <c r="F38" s="47">
+        <v>4879</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F26:F38">
+    <sortCondition ref="F26"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA0D0C6-DC88-442E-98A9-F78466C9A3F6}">
+  <dimension ref="A1:O18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="41">
+        <v>6</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="43">
+        <v>0.48682999999999998</v>
+      </c>
+      <c r="D2" s="43">
+        <v>30.988489999999999</v>
+      </c>
+      <c r="E2" s="43">
+        <v>32.023940000000003</v>
+      </c>
+      <c r="F2" s="43">
+        <v>3517.78</v>
+      </c>
+      <c r="G2" s="43">
+        <v>0.82339499999999999</v>
+      </c>
+      <c r="H2" s="43">
+        <v>1.6913499999999999</v>
+      </c>
+      <c r="K2" s="43">
+        <v>3517.78</v>
+      </c>
+      <c r="L2" s="43">
+        <v>1.6913499999999999</v>
+      </c>
+      <c r="N2" s="43">
+        <v>30.988489999999999</v>
+      </c>
+      <c r="O2" s="43">
+        <v>0.82339499999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="41">
+        <v>8</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="43">
+        <v>0.48604000000000003</v>
+      </c>
+      <c r="D3" s="43">
+        <v>28.478670000000001</v>
+      </c>
+      <c r="E3" s="43">
+        <v>29.117139999999999</v>
+      </c>
+      <c r="F3" s="43">
+        <v>3504.23</v>
+      </c>
+      <c r="G3" s="43">
+        <v>0.82091000000000003</v>
+      </c>
+      <c r="H3" s="43">
+        <v>1.6889799999999999</v>
+      </c>
+      <c r="K3" s="43">
+        <v>3504.23</v>
+      </c>
+      <c r="L3" s="43">
+        <v>1.6889799999999999</v>
+      </c>
+      <c r="N3" s="43">
+        <v>28.478670000000001</v>
+      </c>
+      <c r="O3" s="43">
+        <v>0.82091000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="41">
+        <v>7</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="43">
+        <v>0.50915999999999995</v>
+      </c>
+      <c r="D4" s="43">
+        <v>14.432740000000001</v>
+      </c>
+      <c r="E4" s="43">
+        <v>24.141760000000001</v>
+      </c>
+      <c r="F4" s="43">
+        <v>3321.71</v>
+      </c>
+      <c r="G4" s="43">
+        <v>0.82381499999999996</v>
+      </c>
+      <c r="H4" s="43">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="K4" s="43">
+        <v>3321.71</v>
+      </c>
+      <c r="L4" s="43">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="N4" s="43">
+        <v>14.432740000000001</v>
+      </c>
+      <c r="O4" s="43">
+        <v>0.82381499999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="41">
+        <v>11</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="43">
+        <v>0.65190999999999999</v>
+      </c>
+      <c r="D5" s="43">
+        <v>11.244479999999999</v>
+      </c>
+      <c r="E5" s="43">
+        <v>11.45407</v>
+      </c>
+      <c r="F5" s="43">
+        <v>4516.55</v>
+      </c>
+      <c r="G5" s="43">
+        <v>0.70696999999999999</v>
+      </c>
+      <c r="H5" s="43">
+        <v>1.08446</v>
+      </c>
+      <c r="K5" s="43">
+        <v>4516.55</v>
+      </c>
+      <c r="L5" s="43">
+        <v>1.08446</v>
+      </c>
+      <c r="N5" s="43">
+        <v>11.244479999999999</v>
+      </c>
+      <c r="O5" s="43">
+        <v>0.70696999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="41">
+        <v>4</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="43">
+        <v>0.72258999999999995</v>
+      </c>
+      <c r="D6" s="43">
+        <v>6.7338699999999996</v>
+      </c>
+      <c r="E6" s="43">
+        <v>12.96894</v>
+      </c>
+      <c r="F6" s="43">
+        <v>3474.86</v>
+      </c>
+      <c r="G6" s="43">
+        <v>0.73928499999999997</v>
+      </c>
+      <c r="H6" s="43">
+        <v>1.02311</v>
+      </c>
+      <c r="K6" s="43">
+        <v>3474.86</v>
+      </c>
+      <c r="L6" s="43">
+        <v>1.02311</v>
+      </c>
+      <c r="N6" s="43">
+        <v>6.7338699999999996</v>
+      </c>
+      <c r="O6" s="43">
+        <v>0.73928499999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="41">
+        <v>9</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="43">
+        <v>1.00403</v>
+      </c>
+      <c r="D7" s="43">
+        <v>5.9708300000000003</v>
+      </c>
+      <c r="E7" s="43">
+        <v>6.5773900000000003</v>
+      </c>
+      <c r="F7" s="43">
+        <v>3879.52</v>
+      </c>
+      <c r="G7" s="43">
+        <v>0.59773500000000002</v>
+      </c>
+      <c r="H7" s="43">
+        <v>0.59533499999999995</v>
+      </c>
+      <c r="K7" s="43">
+        <v>3879.52</v>
+      </c>
+      <c r="L7" s="43">
+        <v>0.59533499999999995</v>
+      </c>
+      <c r="N7" s="43">
+        <v>5.9708300000000003</v>
+      </c>
+      <c r="O7" s="43">
+        <v>0.59773500000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="41">
+        <v>1</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="43">
+        <v>1.23478</v>
+      </c>
+      <c r="D8" s="43">
+        <v>3.8217500000000002</v>
+      </c>
+      <c r="E8" s="43">
+        <v>8.7030700000000003</v>
+      </c>
+      <c r="F8" s="43">
+        <v>2920.55</v>
+      </c>
+      <c r="G8" s="43">
+        <v>0.590055</v>
+      </c>
+      <c r="H8" s="43">
+        <v>0.47786099999999998</v>
+      </c>
+      <c r="K8" s="43">
+        <v>2920.55</v>
+      </c>
+      <c r="L8" s="43">
+        <v>0.47786099999999998</v>
+      </c>
+      <c r="N8" s="43">
+        <v>3.8217500000000002</v>
+      </c>
+      <c r="O8" s="43">
+        <v>0.590055</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="41">
+        <v>12</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="43">
+        <v>0.91649999999999998</v>
+      </c>
+      <c r="D9" s="43">
+        <v>3.53498</v>
+      </c>
+      <c r="E9" s="43">
+        <v>11.983090000000001</v>
+      </c>
+      <c r="F9" s="43">
+        <v>4879</v>
+      </c>
+      <c r="G9" s="43">
+        <v>0.64198999999999995</v>
+      </c>
+      <c r="H9" s="43">
+        <v>0.70048200000000005</v>
+      </c>
+      <c r="K9" s="43">
+        <v>4879</v>
+      </c>
+      <c r="L9" s="43">
+        <v>0.70048200000000005</v>
+      </c>
+      <c r="N9" s="43">
+        <v>3.53498</v>
+      </c>
+      <c r="O9" s="43">
+        <v>0.64198999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="41">
+        <v>13</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="43">
+        <v>0.90332999999999997</v>
+      </c>
+      <c r="D10" s="43">
+        <v>3.4548000000000001</v>
+      </c>
+      <c r="E10" s="43">
+        <v>12.063359999999999</v>
+      </c>
+      <c r="F10" s="43">
+        <v>4633.29</v>
+      </c>
+      <c r="G10" s="43">
+        <v>0.61424999999999996</v>
+      </c>
+      <c r="H10" s="43">
+        <v>0.67998700000000001</v>
+      </c>
+      <c r="K10" s="43">
+        <v>4633.29</v>
+      </c>
+      <c r="L10" s="43">
+        <v>0.67998700000000001</v>
+      </c>
+      <c r="N10" s="43">
+        <v>3.4548000000000001</v>
+      </c>
+      <c r="O10" s="43">
+        <v>0.61424999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="41">
+        <v>5</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="43">
+        <v>1.59198</v>
+      </c>
+      <c r="D11" s="43">
+        <v>3.4371499999999999</v>
+      </c>
+      <c r="E11" s="43">
+        <v>7.6516500000000001</v>
+      </c>
+      <c r="F11" s="43">
+        <v>2470.35</v>
+      </c>
+      <c r="G11" s="43">
+        <v>0.55081999999999998</v>
+      </c>
+      <c r="H11" s="43">
+        <v>0.34599600000000003</v>
+      </c>
+      <c r="K11" s="43">
+        <v>2470.35</v>
+      </c>
+      <c r="L11" s="43">
+        <v>0.34599600000000003</v>
+      </c>
+      <c r="N11" s="43">
+        <v>3.4371499999999999</v>
+      </c>
+      <c r="O11" s="43">
+        <v>0.55081999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="41">
+        <v>10</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="43">
+        <v>1.4716899999999999</v>
+      </c>
+      <c r="D12" s="43">
+        <v>2.5868099999999998</v>
+      </c>
+      <c r="E12" s="43">
+        <v>2.7865600000000001</v>
+      </c>
+      <c r="F12" s="43">
+        <v>4299.53</v>
+      </c>
+      <c r="G12" s="43">
+        <v>0.36141499999999999</v>
+      </c>
+      <c r="H12" s="43">
+        <v>0.24557899999999999</v>
+      </c>
+      <c r="K12" s="43">
+        <v>4299.53</v>
+      </c>
+      <c r="L12" s="43">
+        <v>0.24557899999999999</v>
+      </c>
+      <c r="N12" s="43">
+        <v>2.5868099999999998</v>
+      </c>
+      <c r="O12" s="43">
+        <v>0.36141499999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="41">
+        <v>2</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="43">
+        <v>2.0227300000000001</v>
+      </c>
+      <c r="D13" s="43">
+        <v>1.27596</v>
+      </c>
+      <c r="E13" s="43">
+        <v>7.3330599999999997</v>
+      </c>
+      <c r="F13" s="43">
+        <v>2383.4299999999998</v>
+      </c>
+      <c r="G13" s="43">
+        <v>0.41685</v>
+      </c>
+      <c r="H13" s="43">
+        <v>0.20608299999999999</v>
+      </c>
+      <c r="K13" s="43">
+        <v>2383.4299999999998</v>
+      </c>
+      <c r="L13" s="43">
+        <v>0.20608299999999999</v>
+      </c>
+      <c r="N13" s="43">
+        <v>1.27596</v>
+      </c>
+      <c r="O13" s="43">
+        <v>0.41685</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="41">
+        <v>3</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="43">
+        <v>1.6404000000000001</v>
+      </c>
+      <c r="D14" s="44">
+        <v>1.0821400000000001</v>
+      </c>
+      <c r="E14" s="43">
+        <v>2.7181899999999999</v>
+      </c>
+      <c r="F14" s="43">
+        <v>4812.3900000000003</v>
+      </c>
+      <c r="G14" s="43">
+        <v>0.28103499999999998</v>
+      </c>
+      <c r="H14" s="43">
+        <v>0.171321</v>
+      </c>
+      <c r="K14" s="43">
+        <v>4812.3900000000003</v>
+      </c>
+      <c r="L14" s="43">
+        <v>0.171321</v>
+      </c>
+      <c r="N14" s="44">
+        <v>1.0821400000000001</v>
+      </c>
+      <c r="O14" s="43">
+        <v>0.28103499999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="45">
+        <f>MIN(C2:C14)</f>
+        <v>0.48604000000000003</v>
+      </c>
+      <c r="D16" s="45">
+        <f>MIN(D2:D14)</f>
+        <v>1.0821400000000001</v>
+      </c>
+      <c r="E16" s="45">
+        <f>MIN(E2:E14)</f>
+        <v>2.7181899999999999</v>
+      </c>
+      <c r="F16" s="45">
+        <f>MIN(F2:F14)</f>
+        <v>2383.4299999999998</v>
+      </c>
+      <c r="G16" s="45">
+        <f>MIN(G2:G14)</f>
+        <v>0.28103499999999998</v>
+      </c>
+      <c r="H16" s="45">
+        <f>MIN(H2:H14)</f>
+        <v>0.171321</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="45">
+        <f>MAX(C2:C14)</f>
+        <v>2.0227300000000001</v>
+      </c>
+      <c r="D17" s="45">
+        <f>MAX(D2:D14)</f>
+        <v>30.988489999999999</v>
+      </c>
+      <c r="E17" s="45">
+        <f>MAX(E2:E14)</f>
+        <v>32.023940000000003</v>
+      </c>
+      <c r="F17" s="45">
+        <f>MAX(F2:F14)</f>
+        <v>4879</v>
+      </c>
+      <c r="G17" s="45">
+        <f>MAX(G2:G14)</f>
+        <v>0.82381499999999996</v>
+      </c>
+      <c r="H17" s="45">
+        <f>MAX(H2:H14)</f>
+        <v>1.6913499999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="42"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H14" xr:uid="{CCA0D0C6-DC88-442E-98A9-F78466C9A3F6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H14">
+      <sortCondition descending="1" ref="D1:D14"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>